--- a/out/AC/AC 1425.xlsx
+++ b/out/AC/AC 1425.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>Kundenr</t>
   </si>
@@ -943,7 +943,7 @@
     <t>4% filler,47% containsProductNr,47% NrHeader,</t>
   </si>
   <si>
-    <t>4% filler,23% containsTotalMass,23% containsSingleMass,47% isDecimal,</t>
+    <t>4% filler,22% containsTotalMass,22% containsSingleMass,45% isDecimal,4% containsAmount,</t>
   </si>
   <si>
     <t>4% filler,47% containsProduct,47% QuantityHeader,</t>
@@ -995,6 +995,12 @@
   </si>
   <si>
     <t xml:space="preserve">PRODUKT, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANTAL, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STK. MASSE, TOTAL MASSE </t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE3DD42"/>
+        <fgColor rgb="FFD8D34A"/>
       </patternFill>
     </fill>
     <fill>
@@ -11059,7 +11065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F8283D0-4FB8-4804-A1BE-228F1DB28582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684B3E54-3DC3-4B3A-A3B2-011558E9B5A5}">
   <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
@@ -12614,7 +12620,7 @@
       <c r="C55" s="17">
         <v>79280</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="15" t="s">
         <v>115</v>
       </c>
       <c r="E55" s="19">
@@ -20218,7 +20224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF78B66-BC87-4446-AFD7-89202686B3A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D727F5-F4BD-4A8B-ACD0-401626D2B3B6}">
   <dimension ref="A1:H1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
@@ -20250,11 +20256,11 @@
       <c r="D1" s="36" t="s">
         <v>319</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
+      <c r="E1" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>321</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -20276,10 +20282,10 @@
       <c r="D2" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0">
+      <c r="E2" s="37">
         <v>1</v>
       </c>
-      <c r="F2" s="0">
+      <c r="F2" s="38">
         <v>4.5</v>
       </c>
       <c r="G2" s="0">
@@ -20303,10 +20309,10 @@
       <c r="D3" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0">
+      <c r="E3" s="37">
         <v>9.22</v>
       </c>
-      <c r="F3" s="0">
+      <c r="F3" s="38">
         <v>41.5</v>
       </c>
       <c r="G3" s="0">
@@ -20330,10 +20336,10 @@
       <c r="D4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0">
+      <c r="E4" s="37">
         <v>4</v>
       </c>
-      <c r="F4" s="0">
+      <c r="F4" s="38">
         <v>40</v>
       </c>
       <c r="G4" s="0">
@@ -20357,10 +20363,10 @@
       <c r="D5" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="0">
+      <c r="E5" s="37">
         <v>0.73</v>
       </c>
-      <c r="F5" s="0">
+      <c r="F5" s="38">
         <v>10.25</v>
       </c>
       <c r="G5" s="0">
@@ -20384,10 +20390,10 @@
       <c r="D6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="0">
+      <c r="E6" s="37">
         <v>0.17</v>
       </c>
-      <c r="F6" s="0">
+      <c r="F6" s="38">
         <v>1.167</v>
       </c>
       <c r="G6" s="0">
@@ -20411,10 +20417,10 @@
       <c r="D7" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="0">
+      <c r="E7" s="37">
         <v>1.04</v>
       </c>
-      <c r="F7" s="0">
+      <c r="F7" s="38">
         <v>10.219</v>
       </c>
       <c r="G7" s="0">
@@ -20438,10 +20444,10 @@
       <c r="D8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="0">
+      <c r="E8" s="37">
         <v>0.14</v>
       </c>
-      <c r="F8" s="0">
+      <c r="F8" s="38">
         <v>1.429</v>
       </c>
       <c r="G8" s="0">
@@ -20465,10 +20471,10 @@
       <c r="D9" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="0">
+      <c r="E9" s="37">
         <v>0.2</v>
       </c>
-      <c r="F9" s="0">
+      <c r="F9" s="38">
         <v>1.2</v>
       </c>
       <c r="G9" s="0">
@@ -20492,10 +20498,10 @@
       <c r="D10" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="0">
+      <c r="E10" s="37">
         <v>0.63</v>
       </c>
-      <c r="F10" s="0">
+      <c r="F10" s="38">
         <v>2.875</v>
       </c>
       <c r="G10" s="0">
@@ -20519,10 +20525,10 @@
       <c r="D11" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="0">
+      <c r="E11" s="37">
         <v>8</v>
       </c>
-      <c r="F11" s="0">
+      <c r="F11" s="38">
         <v>96</v>
       </c>
       <c r="G11" s="0">
@@ -20546,10 +20552,10 @@
       <c r="D12" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="0">
+      <c r="E12" s="37">
         <v>52</v>
       </c>
-      <c r="F12" s="0">
+      <c r="F12" s="38">
         <v>520</v>
       </c>
       <c r="G12" s="0">
@@ -20573,10 +20579,10 @@
       <c r="D13" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="0">
+      <c r="E13" s="37">
         <v>0.11</v>
       </c>
-      <c r="F13" s="0">
+      <c r="F13" s="38">
         <v>0.498</v>
       </c>
       <c r="G13" s="0">
@@ -20600,10 +20606,10 @@
       <c r="D14" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="0">
+      <c r="E14" s="37">
         <v>4</v>
       </c>
-      <c r="F14" s="0">
+      <c r="F14" s="38">
         <v>16</v>
       </c>
       <c r="G14" s="0">
@@ -20627,10 +20633,10 @@
       <c r="D15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="0">
+      <c r="E15" s="37">
         <v>24.14</v>
       </c>
-      <c r="F15" s="0">
+      <c r="F15" s="38">
         <v>158</v>
       </c>
       <c r="G15" s="0">
@@ -20654,10 +20660,10 @@
       <c r="D16" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="0">
+      <c r="E16" s="37">
         <v>3</v>
       </c>
-      <c r="F16" s="0">
+      <c r="F16" s="38">
         <v>18</v>
       </c>
       <c r="G16" s="0">
@@ -20681,10 +20687,10 @@
       <c r="D17" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="0">
+      <c r="E17" s="37">
         <v>4</v>
       </c>
-      <c r="F17" s="0">
+      <c r="F17" s="38">
         <v>12</v>
       </c>
       <c r="G17" s="0">
@@ -20708,10 +20714,10 @@
       <c r="D18" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="0">
+      <c r="E18" s="37">
         <v>15</v>
       </c>
-      <c r="F18" s="0">
+      <c r="F18" s="38">
         <v>15</v>
       </c>
       <c r="G18" s="0">
@@ -20735,10 +20741,10 @@
       <c r="D19" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="0">
+      <c r="E19" s="37">
         <v>13</v>
       </c>
-      <c r="F19" s="0">
+      <c r="F19" s="38">
         <v>65</v>
       </c>
       <c r="G19" s="0">
@@ -20762,10 +20768,10 @@
       <c r="D20" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="0">
+      <c r="E20" s="37">
         <v>5</v>
       </c>
-      <c r="F20" s="0">
+      <c r="F20" s="38">
         <v>25</v>
       </c>
       <c r="G20" s="0">
@@ -20789,10 +20795,10 @@
       <c r="D21" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="0">
+      <c r="E21" s="37">
         <v>20</v>
       </c>
-      <c r="F21" s="0">
+      <c r="F21" s="38">
         <v>120</v>
       </c>
       <c r="G21" s="0">
@@ -20816,10 +20822,10 @@
       <c r="D22" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E22" s="0">
+      <c r="E22" s="37">
         <v>1</v>
       </c>
-      <c r="F22" s="0">
+      <c r="F22" s="38">
         <v>4.5</v>
       </c>
       <c r="G22" s="0">
@@ -20843,10 +20849,10 @@
       <c r="D23" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E23" s="0">
+      <c r="E23" s="37">
         <v>33</v>
       </c>
-      <c r="F23" s="0">
+      <c r="F23" s="38">
         <v>330</v>
       </c>
       <c r="G23" s="0">
@@ -20870,10 +20876,10 @@
       <c r="D24" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="0">
+      <c r="E24" s="37">
         <v>0.09</v>
       </c>
-      <c r="F24" s="0">
+      <c r="F24" s="38">
         <v>0.45</v>
       </c>
       <c r="G24" s="0">
@@ -20897,10 +20903,10 @@
       <c r="D25" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="0">
+      <c r="E25" s="37">
         <v>1</v>
       </c>
-      <c r="F25" s="0">
+      <c r="F25" s="38">
         <v>4</v>
       </c>
       <c r="G25" s="0">
@@ -20924,10 +20930,10 @@
       <c r="D26" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="0">
+      <c r="E26" s="37">
         <v>8</v>
       </c>
-      <c r="F26" s="0">
+      <c r="F26" s="38">
         <v>64</v>
       </c>
       <c r="G26" s="0">
@@ -20951,10 +20957,10 @@
       <c r="D27" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="E27" s="0">
+      <c r="E27" s="37">
         <v>5</v>
       </c>
-      <c r="F27" s="0">
+      <c r="F27" s="38">
         <v>25</v>
       </c>
       <c r="G27" s="0">
@@ -20978,10 +20984,10 @@
       <c r="D28" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="E28" s="0">
+      <c r="E28" s="37">
         <v>0.4</v>
       </c>
-      <c r="F28" s="0">
+      <c r="F28" s="38">
         <v>2</v>
       </c>
       <c r="G28" s="0">
@@ -21005,10 +21011,10 @@
       <c r="D29" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="0">
+      <c r="E29" s="37">
         <v>0.14</v>
       </c>
-      <c r="F29" s="0">
+      <c r="F29" s="38">
         <v>0.681</v>
       </c>
       <c r="G29" s="0">
@@ -21032,10 +21038,10 @@
       <c r="D30" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="0">
+      <c r="E30" s="37">
         <v>0.14</v>
       </c>
-      <c r="F30" s="0">
+      <c r="F30" s="38">
         <v>0.681</v>
       </c>
       <c r="G30" s="0">
@@ -21059,10 +21065,10 @@
       <c r="D31" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="0">
+      <c r="E31" s="37">
         <v>0.13</v>
       </c>
-      <c r="F31" s="0">
+      <c r="F31" s="38">
         <v>0.25</v>
       </c>
       <c r="G31" s="0">
@@ -21086,10 +21092,10 @@
       <c r="D32" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="E32" s="0">
+      <c r="E32" s="37">
         <v>3</v>
       </c>
-      <c r="F32" s="0">
+      <c r="F32" s="38">
         <v>9</v>
       </c>
       <c r="G32" s="0">
@@ -21113,10 +21119,10 @@
       <c r="D33" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="0">
+      <c r="E33" s="37">
         <v>0.2</v>
       </c>
-      <c r="F33" s="0">
+      <c r="F33" s="38">
         <v>3</v>
       </c>
       <c r="G33" s="0">
@@ -21140,10 +21146,10 @@
       <c r="D34" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="0">
+      <c r="E34" s="37">
         <v>31</v>
       </c>
-      <c r="F34" s="0">
+      <c r="F34" s="38">
         <v>31</v>
       </c>
       <c r="G34" s="0">
@@ -21167,10 +21173,10 @@
       <c r="D35" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="0">
+      <c r="E35" s="37">
         <v>2</v>
       </c>
-      <c r="F35" s="0">
+      <c r="F35" s="38">
         <v>5</v>
       </c>
       <c r="G35" s="0">
@@ -21194,10 +21200,10 @@
       <c r="D36" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="0">
+      <c r="E36" s="37">
         <v>0.2</v>
       </c>
-      <c r="F36" s="0">
+      <c r="F36" s="38">
         <v>0.6</v>
       </c>
       <c r="G36" s="0">
@@ -21221,10 +21227,10 @@
       <c r="D37" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="E37" s="0">
+      <c r="E37" s="37">
         <v>1</v>
       </c>
-      <c r="F37" s="0">
+      <c r="F37" s="38">
         <v>13</v>
       </c>
       <c r="G37" s="0">
@@ -21248,10 +21254,10 @@
       <c r="D38" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="0">
+      <c r="E38" s="37">
         <v>3</v>
       </c>
-      <c r="F38" s="0">
+      <c r="F38" s="38">
         <v>30</v>
       </c>
       <c r="G38" s="0">
@@ -21275,10 +21281,10 @@
       <c r="D39" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="0">
+      <c r="E39" s="37">
         <v>2</v>
       </c>
-      <c r="F39" s="0">
+      <c r="F39" s="38">
         <v>20</v>
       </c>
       <c r="G39" s="0">
@@ -21302,10 +21308,10 @@
       <c r="D40" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="E40" s="0">
+      <c r="E40" s="37">
         <v>88</v>
       </c>
-      <c r="F40" s="0">
+      <c r="F40" s="38">
         <v>88</v>
       </c>
       <c r="G40" s="0">
@@ -21329,10 +21335,10 @@
       <c r="D41" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="E41" s="0">
+      <c r="E41" s="37">
         <v>8</v>
       </c>
-      <c r="F41" s="0">
+      <c r="F41" s="38">
         <v>80</v>
       </c>
       <c r="G41" s="0">
@@ -21356,10 +21362,10 @@
       <c r="D42" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="E42" s="0">
+      <c r="E42" s="37">
         <v>10</v>
       </c>
-      <c r="F42" s="0">
+      <c r="F42" s="38">
         <v>100</v>
       </c>
       <c r="G42" s="0">
@@ -21383,10 +21389,10 @@
       <c r="D43" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="E43" s="0">
+      <c r="E43" s="37">
         <v>12</v>
       </c>
-      <c r="F43" s="0">
+      <c r="F43" s="38">
         <v>18</v>
       </c>
       <c r="G43" s="0">
@@ -21410,10 +21416,10 @@
       <c r="D44" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E44" s="0">
+      <c r="E44" s="37">
         <v>1</v>
       </c>
-      <c r="F44" s="0">
+      <c r="F44" s="38">
         <v>10</v>
       </c>
       <c r="G44" s="0">
@@ -21437,10 +21443,10 @@
       <c r="D45" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="E45" s="0">
+      <c r="E45" s="37">
         <v>46.5</v>
       </c>
-      <c r="F45" s="0">
+      <c r="F45" s="38">
         <v>139.5</v>
       </c>
       <c r="G45" s="0">
@@ -21464,10 +21470,10 @@
       <c r="D46" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="0">
+      <c r="E46" s="37">
         <v>0.5</v>
       </c>
-      <c r="F46" s="0">
+      <c r="F46" s="38">
         <v>0.8</v>
       </c>
       <c r="G46" s="0">
@@ -21491,10 +21497,10 @@
       <c r="D47" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="E47" s="0">
+      <c r="E47" s="37">
         <v>0.5</v>
       </c>
-      <c r="F47" s="0">
+      <c r="F47" s="38">
         <v>2.5</v>
       </c>
       <c r="G47" s="0">
@@ -21518,10 +21524,10 @@
       <c r="D48" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="E48" s="0">
+      <c r="E48" s="37">
         <v>114</v>
       </c>
-      <c r="F48" s="0">
+      <c r="F48" s="38">
         <v>17.1</v>
       </c>
       <c r="G48" s="0">
@@ -21545,10 +21551,10 @@
       <c r="D49" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="E49" s="0">
+      <c r="E49" s="37">
         <v>268</v>
       </c>
-      <c r="F49" s="0">
+      <c r="F49" s="38">
         <v>268</v>
       </c>
       <c r="G49" s="0">
@@ -21572,10 +21578,10 @@
       <c r="D50" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="0">
+      <c r="E50" s="37">
         <v>0.4</v>
       </c>
-      <c r="F50" s="0">
+      <c r="F50" s="38">
         <v>0.32</v>
       </c>
       <c r="G50" s="0">
@@ -21599,10 +21605,10 @@
       <c r="D51" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="E51" s="0">
+      <c r="E51" s="37">
         <v>8</v>
       </c>
-      <c r="F51" s="0">
+      <c r="F51" s="38">
         <v>8</v>
       </c>
       <c r="G51" s="0">
@@ -21626,10 +21632,10 @@
       <c r="D52" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="E52" s="0">
+      <c r="E52" s="37">
         <v>477</v>
       </c>
-      <c r="F52" s="0">
+      <c r="F52" s="38">
         <v>95.4</v>
       </c>
       <c r="G52" s="0">
@@ -21653,10 +21659,10 @@
       <c r="D53" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="E53" s="0">
+      <c r="E53" s="37">
         <v>1</v>
       </c>
-      <c r="F53" s="0">
+      <c r="F53" s="38">
         <v>5</v>
       </c>
       <c r="G53" s="0">
@@ -21680,10 +21686,10 @@
       <c r="D54" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="E54" s="0">
+      <c r="E54" s="37">
         <v>316</v>
       </c>
-      <c r="F54" s="0">
+      <c r="F54" s="38">
         <v>31.6</v>
       </c>
       <c r="G54" s="0">
@@ -21695,22 +21701,22 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="A55" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B55" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="C55" s="0">
+      <c r="C55" s="37">
         <v>79280</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="0">
+      <c r="E55" s="37">
         <v>0.1</v>
       </c>
-      <c r="F55" s="0">
+      <c r="F55" s="38">
         <v>0.2</v>
       </c>
       <c r="G55" s="0">
@@ -21722,22 +21728,22 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="A56" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B56" s="38" t="s">
         <v>116</v>
       </c>
-      <c r="C56" s="0">
+      <c r="C56" s="37">
         <v>79400</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="D56" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E56" s="0">
+      <c r="E56" s="37">
         <v>0.09</v>
       </c>
-      <c r="F56" s="0">
+      <c r="F56" s="38">
         <v>0.182</v>
       </c>
       <c r="G56" s="0">
@@ -21749,22 +21755,22 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="A57" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B57" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="C57" s="0">
+      <c r="C57" s="37">
         <v>79480</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="D57" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E57" s="0">
+      <c r="E57" s="37">
         <v>79</v>
       </c>
-      <c r="F57" s="0">
+      <c r="F57" s="38">
         <v>7.9</v>
       </c>
       <c r="G57" s="0">
@@ -21776,22 +21782,22 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="A58" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B58" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="C58" s="0">
+      <c r="C58" s="37">
         <v>79530</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D58" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E58" s="0">
+      <c r="E58" s="37">
         <v>1</v>
       </c>
-      <c r="F58" s="0">
+      <c r="F58" s="38">
         <v>0.075</v>
       </c>
       <c r="G58" s="0">
@@ -21803,22 +21809,22 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="A59" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B59" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C59" s="0">
+      <c r="C59" s="37">
         <v>79550</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D59" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="E59" s="0">
+      <c r="E59" s="37">
         <v>27</v>
       </c>
-      <c r="F59" s="0">
+      <c r="F59" s="38">
         <v>2.025</v>
       </c>
       <c r="G59" s="0">
@@ -21830,22 +21836,22 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="A60" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B60" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="C60" s="0">
+      <c r="C60" s="37">
         <v>79630</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="D60" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="E60" s="0">
+      <c r="E60" s="37">
         <v>1</v>
       </c>
-      <c r="F60" s="0">
+      <c r="F60" s="38">
         <v>0.075</v>
       </c>
       <c r="G60" s="0">
@@ -21857,22 +21863,22 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="A61" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B61" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C61" s="0">
+      <c r="C61" s="37">
         <v>79750</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="D61" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="E61" s="0">
+      <c r="E61" s="37">
         <v>14</v>
       </c>
-      <c r="F61" s="0">
+      <c r="F61" s="38">
         <v>14</v>
       </c>
       <c r="G61" s="0">
@@ -21884,22 +21890,22 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="A62" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B62" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="0">
+      <c r="C62" s="37">
         <v>79790</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="D62" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="E62" s="0">
+      <c r="E62" s="37">
         <v>10</v>
       </c>
-      <c r="F62" s="0">
+      <c r="F62" s="38">
         <v>10</v>
       </c>
       <c r="G62" s="0">
@@ -21911,22 +21917,22 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="A63" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B63" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="C63" s="0">
+      <c r="C63" s="37">
         <v>79810</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="D63" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="0">
+      <c r="E63" s="37">
         <v>4</v>
       </c>
-      <c r="F63" s="0">
+      <c r="F63" s="38">
         <v>4</v>
       </c>
       <c r="G63" s="0">
@@ -21938,22 +21944,22 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="A64" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B64" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="C64" s="0">
+      <c r="C64" s="37">
         <v>80170</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="D64" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="E64" s="0">
+      <c r="E64" s="37">
         <v>4</v>
       </c>
-      <c r="F64" s="0">
+      <c r="F64" s="38">
         <v>0.3</v>
       </c>
       <c r="G64" s="0">
@@ -21965,22 +21971,22 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="A65" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B65" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C65" s="0">
+      <c r="C65" s="37">
         <v>83000</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="D65" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="0">
+      <c r="E65" s="37">
         <v>1.92</v>
       </c>
-      <c r="F65" s="0">
+      <c r="F65" s="38">
         <v>8.8</v>
       </c>
       <c r="G65" s="0">
@@ -21992,22 +21998,22 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="A66" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B66" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C66" s="0">
+      <c r="C66" s="37">
         <v>88200</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="D66" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="E66" s="0">
+      <c r="E66" s="37">
         <v>3</v>
       </c>
-      <c r="F66" s="0">
+      <c r="F66" s="38">
         <v>4.5</v>
       </c>
       <c r="G66" s="0">
@@ -22019,22 +22025,22 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="A67" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B67" s="38" t="s">
         <v>138</v>
       </c>
-      <c r="C67" s="0">
+      <c r="C67" s="37">
         <v>88300</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="E67" s="0">
+      <c r="E67" s="37">
         <v>3.25</v>
       </c>
-      <c r="F67" s="0">
+      <c r="F67" s="38">
         <v>4.875</v>
       </c>
       <c r="G67" s="0">
@@ -22046,22 +22052,22 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B68" s="0" t="s">
+      <c r="A68" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B68" s="38" t="s">
         <v>140</v>
       </c>
-      <c r="C68" s="0">
+      <c r="C68" s="37">
         <v>88900</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="E68" s="0">
+      <c r="E68" s="37">
         <v>0.25</v>
       </c>
-      <c r="F68" s="0">
+      <c r="F68" s="38">
         <v>0.45</v>
       </c>
       <c r="G68" s="0">
@@ -22073,22 +22079,22 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B69" s="0" t="s">
+      <c r="A69" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B69" s="38" t="s">
         <v>142</v>
       </c>
-      <c r="C69" s="0">
+      <c r="C69" s="37">
         <v>460200</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="E69" s="0">
+      <c r="E69" s="37">
         <v>3</v>
       </c>
-      <c r="F69" s="0">
+      <c r="F69" s="38">
         <v>1.5</v>
       </c>
       <c r="G69" s="0">
@@ -22100,22 +22106,22 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="A70" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B70" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="C70" s="0">
+      <c r="C70" s="37">
         <v>910140</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E70" s="0">
+      <c r="E70" s="37">
         <v>5</v>
       </c>
-      <c r="F70" s="0">
+      <c r="F70" s="38">
         <v>50</v>
       </c>
       <c r="G70" s="0">
@@ -22127,22 +22133,22 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="A71" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B71" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="C71" s="0">
+      <c r="C71" s="37">
         <v>910200</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="0">
+      <c r="E71" s="37">
         <v>121</v>
       </c>
-      <c r="F71" s="0">
+      <c r="F71" s="38">
         <v>2277.22</v>
       </c>
       <c r="G71" s="0">
@@ -22154,22 +22160,22 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="A72" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B72" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="C72" s="0">
+      <c r="C72" s="37">
         <v>910210</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="E72" s="0">
+      <c r="E72" s="37">
         <v>27</v>
       </c>
-      <c r="F72" s="0">
+      <c r="F72" s="38">
         <v>367.2</v>
       </c>
       <c r="G72" s="0">
@@ -22181,22 +22187,22 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B73" s="0" t="s">
+      <c r="A73" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B73" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="C73" s="0">
+      <c r="C73" s="37">
         <v>910220</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="D73" s="38" t="s">
         <v>151</v>
       </c>
-      <c r="E73" s="0">
+      <c r="E73" s="37">
         <v>5</v>
       </c>
-      <c r="F73" s="0">
+      <c r="F73" s="38">
         <v>94.1</v>
       </c>
       <c r="G73" s="0">
@@ -22208,22 +22214,22 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="A74" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B74" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="C74" s="0">
+      <c r="C74" s="37">
         <v>910300</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="D74" s="38" t="s">
         <v>153</v>
       </c>
-      <c r="E74" s="0">
+      <c r="E74" s="37">
         <v>63</v>
       </c>
-      <c r="F74" s="0">
+      <c r="F74" s="38">
         <v>378</v>
       </c>
       <c r="G74" s="0">
@@ -22235,22 +22241,22 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B75" s="0" t="s">
+      <c r="A75" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B75" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="C75" s="0">
+      <c r="C75" s="37">
         <v>910440</v>
       </c>
-      <c r="D75" s="0" t="s">
+      <c r="D75" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="E75" s="0">
+      <c r="E75" s="37">
         <v>19</v>
       </c>
-      <c r="F75" s="0">
+      <c r="F75" s="38">
         <v>114</v>
       </c>
       <c r="G75" s="0">
@@ -22262,22 +22268,22 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="A76" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B76" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="C76" s="0">
+      <c r="C76" s="37">
         <v>910530</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="D76" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="E76" s="0">
+      <c r="E76" s="37">
         <v>3.1</v>
       </c>
-      <c r="F76" s="0">
+      <c r="F76" s="38">
         <v>12.4</v>
       </c>
       <c r="G76" s="0">
@@ -22289,22 +22295,22 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B77" s="0" t="s">
+      <c r="A77" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="C77" s="0">
+      <c r="C77" s="37">
         <v>910810</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="D77" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="E77" s="0">
+      <c r="E77" s="37">
         <v>30</v>
       </c>
-      <c r="F77" s="0">
+      <c r="F77" s="38">
         <v>368</v>
       </c>
       <c r="G77" s="0">
@@ -22316,22 +22322,22 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B78" s="0" t="s">
+      <c r="A78" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B78" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="C78" s="0">
+      <c r="C78" s="37">
         <v>916700</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="D78" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="E78" s="0">
+      <c r="E78" s="37">
         <v>1</v>
       </c>
-      <c r="F78" s="0">
+      <c r="F78" s="38">
         <v>4</v>
       </c>
       <c r="G78" s="0">
@@ -22343,22 +22349,22 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="A79" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B79" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="C79" s="0">
+      <c r="C79" s="37">
         <v>920830</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="D79" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="E79" s="0">
+      <c r="E79" s="37">
         <v>30</v>
       </c>
-      <c r="F79" s="0">
+      <c r="F79" s="38">
         <v>180</v>
       </c>
       <c r="G79" s="0">
@@ -22370,22 +22376,22 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B80" s="0" t="s">
+      <c r="A80" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B80" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="C80" s="0">
+      <c r="C80" s="37">
         <v>920850</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="D80" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="E80" s="0">
+      <c r="E80" s="37">
         <v>10</v>
       </c>
-      <c r="F80" s="0">
+      <c r="F80" s="38">
         <v>30</v>
       </c>
       <c r="G80" s="0">
@@ -22397,22 +22403,22 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B81" s="0" t="s">
+      <c r="A81" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B81" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="C81" s="0">
+      <c r="C81" s="37">
         <v>920980</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="D81" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="E81" s="0">
+      <c r="E81" s="37">
         <v>1</v>
       </c>
-      <c r="F81" s="0">
+      <c r="F81" s="38">
         <v>10</v>
       </c>
       <c r="G81" s="0">
@@ -22424,22 +22430,22 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B82" s="0" t="s">
+      <c r="A82" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B82" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="C82" s="0">
+      <c r="C82" s="37">
         <v>921000</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="D82" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="E82" s="0">
+      <c r="E82" s="37">
         <v>0.2</v>
       </c>
-      <c r="F82" s="0">
+      <c r="F82" s="38">
         <v>1</v>
       </c>
       <c r="G82" s="0">
@@ -22451,22 +22457,22 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B83" s="0" t="s">
+      <c r="A83" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B83" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C83" s="0">
+      <c r="C83" s="37">
         <v>921010</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="D83" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="E83" s="0">
+      <c r="E83" s="37">
         <v>0.2</v>
       </c>
-      <c r="F83" s="0">
+      <c r="F83" s="38">
         <v>1</v>
       </c>
       <c r="G83" s="0">
@@ -22478,22 +22484,22 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B84" s="0" t="s">
+      <c r="A84" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B84" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="C84" s="0">
+      <c r="C84" s="37">
         <v>921050</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="D84" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="E84" s="0">
+      <c r="E84" s="37">
         <v>74</v>
       </c>
-      <c r="F84" s="0">
+      <c r="F84" s="38">
         <v>370</v>
       </c>
       <c r="G84" s="0">
@@ -22505,22 +22511,22 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B85" s="0" t="s">
+      <c r="A85" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B85" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="C85" s="0">
+      <c r="C85" s="37">
         <v>921060</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="D85" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="E85" s="0">
+      <c r="E85" s="37">
         <v>65</v>
       </c>
-      <c r="F85" s="0">
+      <c r="F85" s="38">
         <v>325</v>
       </c>
       <c r="G85" s="0">
@@ -22532,22 +22538,22 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="A86" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B86" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="C86" s="0">
+      <c r="C86" s="37">
         <v>921080</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="D86" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="E86" s="0">
+      <c r="E86" s="37">
         <v>3</v>
       </c>
-      <c r="F86" s="0">
+      <c r="F86" s="38">
         <v>15</v>
       </c>
       <c r="G86" s="0">
@@ -22559,22 +22565,22 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B87" s="0" t="s">
+      <c r="A87" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B87" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C87" s="0">
+      <c r="C87" s="37">
         <v>921120</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="D87" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="E87" s="0">
+      <c r="E87" s="37">
         <v>36</v>
       </c>
-      <c r="F87" s="0">
+      <c r="F87" s="38">
         <v>173</v>
       </c>
       <c r="G87" s="0">
@@ -22586,22 +22592,22 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="A88" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B88" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="C88" s="0">
+      <c r="C88" s="37">
         <v>921190</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="D88" s="38" t="s">
         <v>181</v>
       </c>
-      <c r="E88" s="0">
+      <c r="E88" s="37">
         <v>1</v>
       </c>
-      <c r="F88" s="0">
+      <c r="F88" s="38">
         <v>4.6</v>
       </c>
       <c r="G88" s="0">
@@ -22613,22 +22619,22 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B89" s="0" t="s">
+      <c r="A89" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B89" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="C89" s="0">
+      <c r="C89" s="37">
         <v>921570</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="D89" s="38" t="s">
         <v>183</v>
       </c>
-      <c r="E89" s="0">
+      <c r="E89" s="37">
         <v>0.33</v>
       </c>
-      <c r="F89" s="0">
+      <c r="F89" s="38">
         <v>0.999</v>
       </c>
       <c r="G89" s="0">
@@ -22640,22 +22646,22 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B90" s="0" t="s">
+      <c r="A90" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B90" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="C90" s="0">
+      <c r="C90" s="37">
         <v>921600</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="D90" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="E90" s="0">
+      <c r="E90" s="37">
         <v>0.09</v>
       </c>
-      <c r="F90" s="0">
+      <c r="F90" s="38">
         <v>0.364</v>
       </c>
       <c r="G90" s="0">
@@ -22667,22 +22673,22 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B91" s="0" t="s">
+      <c r="A91" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B91" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C91" s="0">
+      <c r="C91" s="37">
         <v>921700</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="D91" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="E91" s="0">
+      <c r="E91" s="37">
         <v>39</v>
       </c>
-      <c r="F91" s="0">
+      <c r="F91" s="38">
         <v>369.1</v>
       </c>
       <c r="G91" s="0">
@@ -22694,22 +22700,22 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B92" s="0" t="s">
+      <c r="A92" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B92" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="C92" s="0">
+      <c r="C92" s="37">
         <v>921910</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="D92" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="E92" s="0">
+      <c r="E92" s="37">
         <v>37</v>
       </c>
-      <c r="F92" s="0">
+      <c r="F92" s="38">
         <v>175.6</v>
       </c>
       <c r="G92" s="0">
@@ -22721,22 +22727,22 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B93" s="0" t="s">
+      <c r="A93" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B93" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="C93" s="0">
+      <c r="C93" s="37">
         <v>921930</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="D93" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="E93" s="0">
+      <c r="E93" s="37">
         <v>54</v>
       </c>
-      <c r="F93" s="0">
+      <c r="F93" s="38">
         <v>540</v>
       </c>
       <c r="G93" s="0">
@@ -22748,22 +22754,22 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B94" s="0" t="s">
+      <c r="A94" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B94" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="C94" s="0">
+      <c r="C94" s="37">
         <v>922020</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="D94" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="E94" s="0">
+      <c r="E94" s="37">
         <v>25</v>
       </c>
-      <c r="F94" s="0">
+      <c r="F94" s="38">
         <v>125</v>
       </c>
       <c r="G94" s="0">
@@ -22775,22 +22781,22 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B95" s="0" t="s">
+      <c r="A95" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B95" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="C95" s="0">
+      <c r="C95" s="37">
         <v>922050</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="D95" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="E95" s="0">
+      <c r="E95" s="37">
         <v>10</v>
       </c>
-      <c r="F95" s="0">
+      <c r="F95" s="38">
         <v>108</v>
       </c>
       <c r="G95" s="0">
@@ -22802,22 +22808,22 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B96" s="0" t="s">
+      <c r="A96" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B96" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="C96" s="0">
+      <c r="C96" s="37">
         <v>922070</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="D96" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="E96" s="0">
+      <c r="E96" s="37">
         <v>3</v>
       </c>
-      <c r="F96" s="0">
+      <c r="F96" s="38">
         <v>30</v>
       </c>
       <c r="G96" s="0">
@@ -22829,22 +22835,22 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="A97" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B97" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="C97" s="0">
+      <c r="C97" s="37">
         <v>924210</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="D97" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="E97" s="0">
+      <c r="E97" s="37">
         <v>39</v>
       </c>
-      <c r="F97" s="0">
+      <c r="F97" s="38">
         <v>195</v>
       </c>
       <c r="G97" s="0">
@@ -22856,22 +22862,22 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="A98" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B98" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="C98" s="0">
+      <c r="C98" s="37">
         <v>924220</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="D98" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="E98" s="0">
+      <c r="E98" s="37">
         <v>0.05</v>
       </c>
-      <c r="F98" s="0">
+      <c r="F98" s="38">
         <v>0.25</v>
       </c>
       <c r="G98" s="0">
@@ -22883,22 +22889,22 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B99" s="0" t="s">
+      <c r="A99" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B99" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="C99" s="0">
+      <c r="C99" s="37">
         <v>924230</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="D99" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="E99" s="0">
+      <c r="E99" s="37">
         <v>0.05</v>
       </c>
-      <c r="F99" s="0">
+      <c r="F99" s="38">
         <v>0.25</v>
       </c>
       <c r="G99" s="0">
@@ -22910,22 +22916,22 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B100" s="0" t="s">
+      <c r="A100" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B100" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="C100" s="0">
+      <c r="C100" s="37">
         <v>924280</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" s="38" t="s">
         <v>205</v>
       </c>
-      <c r="E100" s="0">
+      <c r="E100" s="37">
         <v>7</v>
       </c>
-      <c r="F100" s="0">
+      <c r="F100" s="38">
         <v>7</v>
       </c>
       <c r="G100" s="0">
@@ -22937,22 +22943,22 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="A101" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B101" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="C101" s="0">
+      <c r="C101" s="37">
         <v>925060</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="E101" s="0">
+      <c r="E101" s="37">
         <v>1</v>
       </c>
-      <c r="F101" s="0">
+      <c r="F101" s="38">
         <v>1</v>
       </c>
       <c r="G101" s="0">
@@ -22964,22 +22970,22 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="A102" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B102" s="38" t="s">
         <v>208</v>
       </c>
-      <c r="C102" s="0">
+      <c r="C102" s="37">
         <v>925400</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="D102" s="38" t="s">
         <v>209</v>
       </c>
-      <c r="E102" s="0">
+      <c r="E102" s="37">
         <v>14</v>
       </c>
-      <c r="F102" s="0">
+      <c r="F102" s="38">
         <v>140</v>
       </c>
       <c r="G102" s="0">
@@ -22991,22 +22997,22 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B103" s="0" t="s">
+      <c r="A103" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B103" s="38" t="s">
         <v>210</v>
       </c>
-      <c r="C103" s="0">
+      <c r="C103" s="37">
         <v>925410</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="D103" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="E103" s="0">
+      <c r="E103" s="37">
         <v>25</v>
       </c>
-      <c r="F103" s="0">
+      <c r="F103" s="38">
         <v>125</v>
       </c>
       <c r="G103" s="0">
@@ -23018,22 +23024,22 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B104" s="0" t="s">
+      <c r="A104" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B104" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="C104" s="0">
+      <c r="C104" s="37">
         <v>925710</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="D104" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E104" s="0">
+      <c r="E104" s="37">
         <v>3</v>
       </c>
-      <c r="F104" s="0">
+      <c r="F104" s="38">
         <v>3</v>
       </c>
       <c r="G104" s="0">
@@ -23045,22 +23051,22 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B105" s="0" t="s">
+      <c r="A105" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B105" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="C105" s="0">
+      <c r="C105" s="37">
         <v>926210</v>
       </c>
-      <c r="D105" s="0" t="s">
+      <c r="D105" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="E105" s="0">
+      <c r="E105" s="37">
         <v>99.2</v>
       </c>
-      <c r="F105" s="0">
+      <c r="F105" s="38">
         <v>248</v>
       </c>
       <c r="G105" s="0">
@@ -23072,22 +23078,22 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B106" s="0" t="s">
+      <c r="A106" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B106" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="0">
+      <c r="C106" s="37">
         <v>926270</v>
       </c>
-      <c r="D106" s="0" t="s">
+      <c r="D106" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="E106" s="0">
+      <c r="E106" s="37">
         <v>1</v>
       </c>
-      <c r="F106" s="0">
+      <c r="F106" s="38">
         <v>2.5</v>
       </c>
       <c r="G106" s="0">
@@ -23099,22 +23105,22 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B107" s="0" t="s">
+      <c r="A107" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B107" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C107" s="0">
+      <c r="C107" s="37">
         <v>926600</v>
       </c>
-      <c r="D107" s="0" t="s">
+      <c r="D107" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="E107" s="0">
+      <c r="E107" s="37">
         <v>10</v>
       </c>
-      <c r="F107" s="0">
+      <c r="F107" s="38">
         <v>47.9</v>
       </c>
       <c r="G107" s="0">
@@ -23126,22 +23132,22 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B108" s="0" t="s">
+      <c r="A108" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B108" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="C108" s="0">
+      <c r="C108" s="37">
         <v>927100</v>
       </c>
-      <c r="D108" s="0" t="s">
+      <c r="D108" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="E108" s="0">
+      <c r="E108" s="37">
         <v>1.55</v>
       </c>
-      <c r="F108" s="0">
+      <c r="F108" s="38">
         <v>11.2</v>
       </c>
       <c r="G108" s="0">
@@ -23153,22 +23159,22 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B109" s="0" t="s">
+      <c r="A109" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B109" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="C109" s="0">
+      <c r="C109" s="37">
         <v>927110</v>
       </c>
-      <c r="D109" s="0" t="s">
+      <c r="D109" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="E109" s="0">
+      <c r="E109" s="37">
         <v>0.76</v>
       </c>
-      <c r="F109" s="0">
+      <c r="F109" s="38">
         <v>6.078</v>
       </c>
       <c r="G109" s="0">
@@ -23180,22 +23186,22 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B110" s="0" t="s">
+      <c r="A110" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B110" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="0">
+      <c r="C110" s="37">
         <v>928800</v>
       </c>
-      <c r="D110" s="0" t="s">
+      <c r="D110" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="E110" s="0">
+      <c r="E110" s="37">
         <v>0.15</v>
       </c>
-      <c r="F110" s="0">
+      <c r="F110" s="38">
         <v>2</v>
       </c>
       <c r="G110" s="0">
@@ -23207,22 +23213,22 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B111" s="0" t="s">
+      <c r="A111" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B111" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="C111" s="0">
+      <c r="C111" s="37">
         <v>928840</v>
       </c>
-      <c r="D111" s="0" t="s">
+      <c r="D111" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="E111" s="0">
+      <c r="E111" s="37">
         <v>1</v>
       </c>
-      <c r="F111" s="0">
+      <c r="F111" s="38">
         <v>8</v>
       </c>
       <c r="G111" s="0">
@@ -23234,22 +23240,22 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B112" s="0" t="s">
+      <c r="A112" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B112" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="C112" s="0">
+      <c r="C112" s="37">
         <v>932500</v>
       </c>
-      <c r="D112" s="0" t="s">
+      <c r="D112" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="E112" s="0">
+      <c r="E112" s="37">
         <v>62</v>
       </c>
-      <c r="F112" s="0">
+      <c r="F112" s="38">
         <v>620</v>
       </c>
       <c r="G112" s="0">
@@ -23261,22 +23267,22 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B113" s="0" t="s">
+      <c r="A113" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B113" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="C113" s="0">
+      <c r="C113" s="37">
         <v>932560</v>
       </c>
-      <c r="D113" s="0" t="s">
+      <c r="D113" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="E113" s="0">
+      <c r="E113" s="37">
         <v>96</v>
       </c>
-      <c r="F113" s="0">
+      <c r="F113" s="38">
         <v>960</v>
       </c>
       <c r="G113" s="0">
@@ -23288,22 +23294,22 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B114" s="0" t="s">
+      <c r="A114" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B114" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="C114" s="0">
+      <c r="C114" s="37">
         <v>933430</v>
       </c>
-      <c r="D114" s="0" t="s">
+      <c r="D114" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="E114" s="0">
+      <c r="E114" s="37">
         <v>662</v>
       </c>
-      <c r="F114" s="0">
+      <c r="F114" s="38">
         <v>3310</v>
       </c>
       <c r="G114" s="0">
@@ -23315,22 +23321,22 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B115" s="0" t="s">
+      <c r="A115" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B115" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="C115" s="0">
+      <c r="C115" s="37">
         <v>933450</v>
       </c>
-      <c r="D115" s="0" t="s">
+      <c r="D115" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="E115" s="0">
+      <c r="E115" s="37">
         <v>590</v>
       </c>
-      <c r="F115" s="0">
+      <c r="F115" s="38">
         <v>2950</v>
       </c>
       <c r="G115" s="0">
@@ -23342,22 +23348,22 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B116" s="0" t="s">
+      <c r="A116" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B116" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="C116" s="0">
+      <c r="C116" s="37">
         <v>933540</v>
       </c>
-      <c r="D116" s="0" t="s">
+      <c r="D116" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="E116" s="0">
+      <c r="E116" s="37">
         <v>9.5</v>
       </c>
-      <c r="F116" s="0">
+      <c r="F116" s="38">
         <v>57</v>
       </c>
       <c r="G116" s="0">
@@ -23369,22 +23375,22 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B117" s="0" t="s">
+      <c r="A117" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B117" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="C117" s="0">
+      <c r="C117" s="37">
         <v>933550</v>
       </c>
-      <c r="D117" s="0" t="s">
+      <c r="D117" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="E117" s="0">
+      <c r="E117" s="37">
         <v>28</v>
       </c>
-      <c r="F117" s="0">
+      <c r="F117" s="38">
         <v>140</v>
       </c>
       <c r="G117" s="0">
@@ -23396,22 +23402,22 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B118" s="0" t="s">
+      <c r="A118" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B118" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="C118" s="0">
+      <c r="C118" s="37">
         <v>933800</v>
       </c>
-      <c r="D118" s="0" t="s">
+      <c r="D118" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="E118" s="0">
+      <c r="E118" s="37">
         <v>42</v>
       </c>
-      <c r="F118" s="0">
+      <c r="F118" s="38">
         <v>420</v>
       </c>
       <c r="G118" s="0">
@@ -23423,22 +23429,22 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B119" s="0" t="s">
+      <c r="A119" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B119" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="C119" s="0">
+      <c r="C119" s="37">
         <v>935100</v>
       </c>
-      <c r="D119" s="0" t="s">
+      <c r="D119" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="E119" s="0">
+      <c r="E119" s="37">
         <v>1</v>
       </c>
-      <c r="F119" s="0">
+      <c r="F119" s="38">
         <v>10</v>
       </c>
       <c r="G119" s="0">
@@ -23450,22 +23456,22 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B120" s="0" t="s">
+      <c r="A120" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B120" s="38" t="s">
         <v>244</v>
       </c>
-      <c r="C120" s="0">
+      <c r="C120" s="37">
         <v>944920</v>
       </c>
-      <c r="D120" s="0" t="s">
+      <c r="D120" s="38" t="s">
         <v>245</v>
       </c>
-      <c r="E120" s="0">
+      <c r="E120" s="37">
         <v>1</v>
       </c>
-      <c r="F120" s="0">
+      <c r="F120" s="38">
         <v>3.5</v>
       </c>
       <c r="G120" s="0">
@@ -23477,22 +23483,22 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B121" s="0" t="s">
+      <c r="A121" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B121" s="38" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="0">
+      <c r="C121" s="37">
         <v>944930</v>
       </c>
-      <c r="D121" s="0" t="s">
+      <c r="D121" s="38" t="s">
         <v>247</v>
       </c>
-      <c r="E121" s="0">
+      <c r="E121" s="37">
         <v>0.76</v>
       </c>
-      <c r="F121" s="0">
+      <c r="F121" s="38">
         <v>1.4</v>
       </c>
       <c r="G121" s="0">
@@ -23504,22 +23510,22 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B122" s="0" t="s">
+      <c r="A122" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B122" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="C122" s="0">
+      <c r="C122" s="37">
         <v>944980</v>
       </c>
-      <c r="D122" s="0" t="s">
+      <c r="D122" s="38" t="s">
         <v>249</v>
       </c>
-      <c r="E122" s="0">
+      <c r="E122" s="37">
         <v>2.5</v>
       </c>
-      <c r="F122" s="0">
+      <c r="F122" s="38">
         <v>2.5</v>
       </c>
       <c r="G122" s="0">
@@ -23531,22 +23537,22 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B123" s="0" t="s">
+      <c r="A123" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B123" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="0">
+      <c r="C123" s="37">
         <v>945500</v>
       </c>
-      <c r="D123" s="0" t="s">
+      <c r="D123" s="38" t="s">
         <v>251</v>
       </c>
-      <c r="E123" s="0">
+      <c r="E123" s="37">
         <v>9.16</v>
       </c>
-      <c r="F123" s="0">
+      <c r="F123" s="38">
         <v>40.2</v>
       </c>
       <c r="G123" s="0">
@@ -23558,22 +23564,22 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B124" s="0" t="s">
+      <c r="A124" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B124" s="38" t="s">
         <v>252</v>
       </c>
-      <c r="C124" s="0">
+      <c r="C124" s="37">
         <v>945600</v>
       </c>
-      <c r="D124" s="0" t="s">
+      <c r="D124" s="38" t="s">
         <v>253</v>
       </c>
-      <c r="E124" s="0">
+      <c r="E124" s="37">
         <v>0.51</v>
       </c>
-      <c r="F124" s="0">
+      <c r="F124" s="38">
         <v>3</v>
       </c>
       <c r="G124" s="0">
@@ -23585,22 +23591,22 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B125" s="0" t="s">
+      <c r="A125" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B125" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="C125" s="0">
+      <c r="C125" s="37">
         <v>972200</v>
       </c>
-      <c r="D125" s="0" t="s">
+      <c r="D125" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="E125" s="0">
+      <c r="E125" s="37">
         <v>39</v>
       </c>
-      <c r="F125" s="0">
+      <c r="F125" s="38">
         <v>3.9</v>
       </c>
       <c r="G125" s="0">
@@ -23612,22 +23618,22 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B126" s="0" t="s">
+      <c r="A126" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B126" s="38" t="s">
         <v>256</v>
       </c>
-      <c r="C126" s="0">
+      <c r="C126" s="37">
         <v>972210</v>
       </c>
-      <c r="D126" s="0" t="s">
+      <c r="D126" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="E126" s="0">
+      <c r="E126" s="37">
         <v>4</v>
       </c>
-      <c r="F126" s="0">
+      <c r="F126" s="38">
         <v>4</v>
       </c>
       <c r="G126" s="0">
@@ -23639,22 +23645,22 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B127" s="0" t="s">
+      <c r="A127" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B127" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="C127" s="0">
+      <c r="C127" s="37">
         <v>973340</v>
       </c>
-      <c r="D127" s="0" t="s">
+      <c r="D127" s="38" t="s">
         <v>259</v>
       </c>
-      <c r="E127" s="0">
+      <c r="E127" s="37">
         <v>32</v>
       </c>
-      <c r="F127" s="0">
+      <c r="F127" s="38">
         <v>38.4</v>
       </c>
       <c r="G127" s="0">
@@ -23666,22 +23672,22 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B128" s="0" t="s">
+      <c r="A128" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B128" s="38" t="s">
         <v>260</v>
       </c>
-      <c r="C128" s="0">
+      <c r="C128" s="37">
         <v>974410</v>
       </c>
-      <c r="D128" s="0" t="s">
+      <c r="D128" s="38" t="s">
         <v>261</v>
       </c>
-      <c r="E128" s="0">
+      <c r="E128" s="37">
         <v>6</v>
       </c>
-      <c r="F128" s="0">
+      <c r="F128" s="38">
         <v>0.6</v>
       </c>
       <c r="G128" s="0">
@@ -23693,22 +23699,22 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B129" s="0" t="s">
+      <c r="A129" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B129" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="C129" s="0">
+      <c r="C129" s="37">
         <v>974420</v>
       </c>
-      <c r="D129" s="0" t="s">
+      <c r="D129" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="E129" s="0">
+      <c r="E129" s="37">
         <v>16</v>
       </c>
-      <c r="F129" s="0">
+      <c r="F129" s="38">
         <v>16</v>
       </c>
       <c r="G129" s="0">
@@ -23720,22 +23726,22 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B130" s="0" t="s">
+      <c r="A130" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B130" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="C130" s="0">
+      <c r="C130" s="37">
         <v>976800</v>
       </c>
-      <c r="D130" s="0" t="s">
+      <c r="D130" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="E130" s="0">
+      <c r="E130" s="37">
         <v>57</v>
       </c>
-      <c r="F130" s="0">
+      <c r="F130" s="38">
         <v>45.6</v>
       </c>
       <c r="G130" s="0">
@@ -23747,22 +23753,22 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B131" s="0" t="s">
+      <c r="A131" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B131" s="38" t="s">
         <v>266</v>
       </c>
-      <c r="C131" s="0">
+      <c r="C131" s="37">
         <v>976820</v>
       </c>
-      <c r="D131" s="0" t="s">
+      <c r="D131" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="E131" s="0">
+      <c r="E131" s="37">
         <v>15</v>
       </c>
-      <c r="F131" s="0">
+      <c r="F131" s="38">
         <v>15</v>
       </c>
       <c r="G131" s="0">
@@ -23774,22 +23780,22 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B132" s="0" t="s">
+      <c r="A132" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B132" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="C132" s="0">
+      <c r="C132" s="37">
         <v>977550</v>
       </c>
-      <c r="D132" s="0" t="s">
+      <c r="D132" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="E132" s="0">
+      <c r="E132" s="37">
         <v>1</v>
       </c>
-      <c r="F132" s="0">
+      <c r="F132" s="38">
         <v>0.4</v>
       </c>
       <c r="G132" s="0">
@@ -23801,22 +23807,22 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B133" s="0" t="s">
+      <c r="A133" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B133" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="C133" s="0">
+      <c r="C133" s="37">
         <v>979500</v>
       </c>
-      <c r="D133" s="0" t="s">
+      <c r="D133" s="38" t="s">
         <v>271</v>
       </c>
-      <c r="E133" s="0">
+      <c r="E133" s="37">
         <v>6</v>
       </c>
-      <c r="F133" s="0">
+      <c r="F133" s="38">
         <v>0.3</v>
       </c>
       <c r="G133" s="0">
@@ -23828,22 +23834,22 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B134" s="0" t="s">
+      <c r="A134" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B134" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="C134" s="0">
+      <c r="C134" s="37">
         <v>979530</v>
       </c>
-      <c r="D134" s="0" t="s">
+      <c r="D134" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="E134" s="0">
+      <c r="E134" s="37">
         <v>10</v>
       </c>
-      <c r="F134" s="0">
+      <c r="F134" s="38">
         <v>0.5</v>
       </c>
       <c r="G134" s="0">
@@ -23855,22 +23861,22 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B135" s="0" t="s">
+      <c r="A135" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B135" s="38" t="s">
         <v>274</v>
       </c>
-      <c r="C135" s="0">
+      <c r="C135" s="37">
         <v>979540</v>
       </c>
-      <c r="D135" s="0" t="s">
+      <c r="D135" s="38" t="s">
         <v>275</v>
       </c>
-      <c r="E135" s="0">
+      <c r="E135" s="37">
         <v>9</v>
       </c>
-      <c r="F135" s="0">
+      <c r="F135" s="38">
         <v>0.45</v>
       </c>
       <c r="G135" s="0">
@@ -23882,22 +23888,22 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B136" s="0" t="s">
+      <c r="A136" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B136" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="C136" s="0">
+      <c r="C136" s="37">
         <v>979550</v>
       </c>
-      <c r="D136" s="0" t="s">
+      <c r="D136" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="E136" s="0">
+      <c r="E136" s="37">
         <v>8</v>
       </c>
-      <c r="F136" s="0">
+      <c r="F136" s="38">
         <v>0.4</v>
       </c>
       <c r="G136" s="0">
@@ -23909,22 +23915,22 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B137" s="0" t="s">
+      <c r="A137" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B137" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="C137" s="0">
+      <c r="C137" s="37">
         <v>979560</v>
       </c>
-      <c r="D137" s="0" t="s">
+      <c r="D137" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="E137" s="0">
+      <c r="E137" s="37">
         <v>1</v>
       </c>
-      <c r="F137" s="0">
+      <c r="F137" s="38">
         <v>0.05</v>
       </c>
       <c r="G137" s="0">
@@ -23936,22 +23942,22 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B138" s="0" t="s">
+      <c r="A138" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B138" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="C138" s="0">
+      <c r="C138" s="37">
         <v>979590</v>
       </c>
-      <c r="D138" s="0" t="s">
+      <c r="D138" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="E138" s="0">
+      <c r="E138" s="37">
         <v>14</v>
       </c>
-      <c r="F138" s="0">
+      <c r="F138" s="38">
         <v>0.7</v>
       </c>
       <c r="G138" s="0">
@@ -23963,22 +23969,22 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B139" s="0" t="s">
+      <c r="A139" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B139" s="38" t="s">
         <v>282</v>
       </c>
-      <c r="C139" s="0">
+      <c r="C139" s="37">
         <v>979630</v>
       </c>
-      <c r="D139" s="0" t="s">
+      <c r="D139" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="E139" s="0">
+      <c r="E139" s="37">
         <v>4</v>
       </c>
-      <c r="F139" s="0">
+      <c r="F139" s="38">
         <v>0.2</v>
       </c>
       <c r="G139" s="0">
@@ -23990,22 +23996,22 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B140" s="0" t="s">
+      <c r="A140" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B140" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C140" s="0">
+      <c r="C140" s="37">
         <v>979700</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="D140" s="38" t="s">
         <v>285</v>
       </c>
-      <c r="E140" s="0">
+      <c r="E140" s="37">
         <v>7</v>
       </c>
-      <c r="F140" s="0">
+      <c r="F140" s="38">
         <v>7</v>
       </c>
       <c r="G140" s="0">
@@ -24017,22 +24023,22 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B141" s="0" t="s">
+      <c r="A141" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B141" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="C141" s="0">
+      <c r="C141" s="37">
         <v>979750</v>
       </c>
-      <c r="D141" s="0" t="s">
+      <c r="D141" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="E141" s="0">
+      <c r="E141" s="37">
         <v>8</v>
       </c>
-      <c r="F141" s="0">
+      <c r="F141" s="38">
         <v>8</v>
       </c>
       <c r="G141" s="0">
@@ -24044,22 +24050,22 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B142" s="0" t="s">
+      <c r="A142" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B142" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="C142" s="0">
+      <c r="C142" s="37">
         <v>979790</v>
       </c>
-      <c r="D142" s="0" t="s">
+      <c r="D142" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="E142" s="0">
+      <c r="E142" s="37">
         <v>6</v>
       </c>
-      <c r="F142" s="0">
+      <c r="F142" s="38">
         <v>6</v>
       </c>
       <c r="G142" s="0">
@@ -24071,22 +24077,22 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B143" s="0" t="s">
+      <c r="A143" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B143" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="C143" s="0">
+      <c r="C143" s="37">
         <v>979810</v>
       </c>
-      <c r="D143" s="0" t="s">
+      <c r="D143" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="E143" s="0">
+      <c r="E143" s="37">
         <v>2</v>
       </c>
-      <c r="F143" s="0">
+      <c r="F143" s="38">
         <v>2</v>
       </c>
       <c r="G143" s="0">
@@ -24098,22 +24104,22 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="0">
-        <v>1425</v>
-      </c>
-      <c r="B144" s="0" t="s">
+      <c r="A144" s="37">
+        <v>1425</v>
+      </c>
+      <c r="B144" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="C144" s="0">
+      <c r="C144" s="37">
         <v>988300</v>
       </c>
-      <c r="D144" s="0" t="s">
+      <c r="D144" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="E144" s="0">
+      <c r="E144" s="37">
         <v>0.17</v>
       </c>
-      <c r="F144" s="0">
+      <c r="F144" s="38">
         <v>0.25</v>
       </c>
       <c r="G144" s="0">

--- a/out/AC/AC 1425.xlsx
+++ b/out/AC/AC 1425.xlsx
@@ -11879,7 +11879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92FE7D21-3DE3-49E1-9B4B-F887C9CCAE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB5B2CCA-816F-4F9B-BA8F-74FFA356A2B9}">
   <dimension ref="A1:I1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
@@ -21038,7 +21038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55AB6A5C-AB8B-4D24-8A59-28B3975C544A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BD57942-DC4E-4252-B468-6E37588890A6}">
   <dimension ref="A1:H1179"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
@@ -34316,7 +34316,7 @@
 </worksheet>
 </file>
 
-<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Nikolaj R Christensen under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
-For more information about EPPlus, see https://epplussoftware.com/
+<file path=EPPlusLicense.txt>This workbook was created with the EPPlus library, licensed to Nikolaj R Christensen under the Polyform Noncommercial license, see https://polyformproject.org/licenses/noncommercial/1.0.0
+For more information about EPPlus, see https://epplussoftware.com/
 
 </file>